--- a/documents/50api.xlsx
+++ b/documents/50api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -68,6 +68,50 @@
     <t>onCreate</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/Bundle;)V</t>
+    </r>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -77,6 +121,9 @@
     <t>onRestart</t>
   </si>
   <si>
+    <t>()V</t>
+  </si>
+  <si>
     <t>onStart</t>
   </si>
   <si>
@@ -92,9 +139,67 @@
     <t>onDestroy</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/Service</t>
+    </r>
+  </si>
+  <si>
     <t>onStartCommand</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/content/Intent;I)V</t>
+    </r>
+  </si>
+  <si>
     <t>java.lang.Thread</t>
   </si>
   <si>
@@ -122,140 +227,1283 @@
     <t>read</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">nio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/ByteBuffer;I)I</t>
+    </r>
+  </si>
+  <si>
+    <t>startRecording</t>
+  </si>
+  <si>
+    <t>android.hardware.Camera</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(I)</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/hardware/Camera;</t>
+    </r>
+  </si>
+  <si>
+    <t>静态方法,无法注入</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">重复</t>
+    </r>
+  </si>
+  <si>
+    <t>android.hardware.SensorManager</t>
+  </si>
+  <si>
+    <t>getDefaultSensor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(I)</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/hardware/Sensor;</t>
+    </r>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>android.content.ContentResolver</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/net/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/content/ContentValues;)</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/net/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/net/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/CancellationSignal;)</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/database/Cursor;</t>
+    </r>
+  </si>
+  <si>
+    <t>delate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/net/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/String;)I</t>
+    </r>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/net/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/content/ContentValues;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/String;)I</t>
+    </r>
+  </si>
+  <si>
+    <t>测试机 闪退</t>
+  </si>
+  <si>
+    <t>应该是测试程序的问题</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/net/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">wifi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/WifiInfo</t>
+    </r>
+  </si>
+  <si>
+    <t>getMacAddress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">()</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+  </si>
+  <si>
+    <t>android.telephony.gsm.SmsMessage</t>
+  </si>
+  <si>
+    <t>getMessageBody</t>
+  </si>
+  <si>
+    <t>android.telephony.TelephonyManager</t>
+  </si>
+  <si>
+    <t>getCallState</t>
+  </si>
+  <si>
+    <t>()I</t>
+  </si>
+  <si>
+    <t>getDeviceId</t>
+  </si>
+  <si>
+    <t>getLine1Number</t>
+  </si>
+  <si>
+    <t>getSimSerialNumber</t>
+  </si>
+  <si>
+    <t>getSubscriberId</t>
+  </si>
+  <si>
+    <t>android.location.LocationManager</t>
+  </si>
+  <si>
+    <t>addGpsStatusListener</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/location/GpsStatus$Listener;)Z</t>
+    </r>
+  </si>
+  <si>
+    <t>getLastKnownLocation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;)</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/location/Location;</t>
+    </r>
+  </si>
+  <si>
+    <t>requestLocationUpdates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(JFLandroid/location/Criteria;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/PendingIntent;)V</t>
+    </r>
+  </si>
+  <si>
+    <t>java.io.FileInputStream</t>
+  </si>
+  <si>
     <t>([BII)I</t>
   </si>
   <si>
-    <t>startRecording</t>
-  </si>
-  <si>
-    <t>android.hardware.Camera</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>静态方法,无法注入</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+    <t>重载方法</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>getFD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">()</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/FileDescriptor;</t>
+    </r>
+  </si>
+  <si>
+    <t>java.io.FileOutputStream</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>(I)V</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>android.telephony.gsm.SmsManager</t>
+  </si>
+  <si>
+    <t>sendDataMessage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">重复</t>
-    </r>
-  </si>
-  <si>
-    <t>android.hardware.SensorManager</t>
-  </si>
-  <si>
-    <t>getDefaultSensor</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>android.content.ContentResolver</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>delate</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>测试机 闪退</t>
-  </si>
-  <si>
-    <t>应该是测试程序的问题</t>
-  </si>
-  <si>
-    <t>android.telephony.gsm.SmsMessage</t>
-  </si>
-  <si>
-    <t>getMessageBody</t>
-  </si>
-  <si>
-    <t>android.telephony.TelephonyManager</t>
-  </si>
-  <si>
-    <t>getCallState</t>
-  </si>
-  <si>
-    <t>getDeviceId</t>
-  </si>
-  <si>
-    <t>getLine1Number</t>
-  </si>
-  <si>
-    <t>getSimSerialNumber</t>
-  </si>
-  <si>
-    <t>getSubscriberId</t>
-  </si>
-  <si>
-    <t>android.location.LocationManager</t>
-  </si>
-  <si>
-    <t>addGpsStatusListener</t>
-  </si>
-  <si>
-    <t>getLastKnownLocation</t>
-  </si>
-  <si>
-    <t>requestLocationUpdates</t>
-  </si>
-  <si>
-    <t>java.io.FileInputStream</t>
-  </si>
-  <si>
-    <t>重载方法</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>getFD</t>
-  </si>
-  <si>
-    <t>java.io.FileOutputStream</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>(I)V</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>android.telephony.gsm.SmsManager</t>
-  </si>
-  <si>
-    <t>sendDataMessage</t>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;S[BLandroid/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/PendingIntent;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/PendingIntent;)V</t>
+    </r>
+  </si>
+  <si>
+    <t>sendMultipartTextMessage</t>
   </si>
   <si>
     <r>
@@ -343,7 +1591,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/String;S[BLandroid/</t>
+      <t xml:space="preserve">/String;</t>
     </r>
     <r>
       <rPr>
@@ -354,6 +1602,287 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">util</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ArrayList;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">util</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ArrayList;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">util</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/ArrayList;)V</t>
+    </r>
+  </si>
+  <si>
+    <t>sendTextMessage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ljava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/String;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Landroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">app</t>
     </r>
     <r>
@@ -410,7 +1939,10 @@
     </r>
   </si>
   <si>
-    <t>sendMultipartTextMessage</t>
+    <t>com.android.internal.telephony.Itelephony$Stub$Proxy</t>
+  </si>
+  <si>
+    <t>call</t>
   </si>
   <si>
     <r>
@@ -450,489 +1982,71 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/String;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
         <sz val="12"/>
         <color rgb="FF2A00FF"/>
         <rFont val="Monospace"/>
         <family val="0"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">/String;)V</t>
+    </r>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>endCall</t>
+  </si>
+  <si>
+    <t>()Z</t>
+  </si>
+  <si>
+    <t>android.bluetooth.BluetoothAdapter</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>java.net.Socket</t>
+  </si>
+  <si>
+    <t>&lt;init&gt;</t>
+  </si>
+  <si>
+    <t>构造函数</t>
+  </si>
+  <si>
+    <t>java.net.URL</t>
+  </si>
+  <si>
+    <t>openConnection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">()</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
       <t xml:space="preserve">Ljava</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/String;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">util</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ArrayList;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">util</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ArrayList;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">util</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/ArrayList;)V</t>
-    </r>
-  </si>
-  <si>
-    <t>sendTextMessage</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/String;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/String;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/String;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Landroid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/PendingIntent;</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Landroid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/PendingIntent;)V</t>
-    </r>
-  </si>
-  <si>
-    <t>com.android.internal.telephony.Itelephony$Stub$Proxy</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ljava</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/String;)V</t>
-    </r>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>endCall</t>
-  </si>
-  <si>
-    <t>()Z</t>
-  </si>
-  <si>
-    <t>android.bluetooth.BluetoothAdapter</t>
-  </si>
-  <si>
-    <t>disable</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>java.net.Socket</t>
-  </si>
-  <si>
-    <t>&lt;init&gt;</t>
-  </si>
-  <si>
-    <t>()V</t>
-  </si>
-  <si>
-    <t>构造函数</t>
-  </si>
-  <si>
-    <t>java.net.URL</t>
-  </si>
-  <si>
-    <t>openConnection</t>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Monospace"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">/net/URLConnection;</t>
+    </r>
   </si>
   <si>
     <t>org.apache.http.client.methods.HttpGet</t>
@@ -991,7 +2105,13 @@
     <t>enableNetwork</t>
   </si>
   <si>
+    <t>(IZ)Z</t>
+  </si>
+  <si>
     <t>setWifiEnabled</t>
+  </si>
+  <si>
+    <t>(Z)Z</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +2121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1037,6 +2157,19 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Monospace"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -1104,7 +2237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1125,11 +2258,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,10 +2347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:52"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M54" activeCellId="0" sqref="M54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1222,7 +2359,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.62441314553991"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.7511737089202"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7511737089202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3943661971831"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4507042253521"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5023474178404"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5164319248826"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.61971830985915"/>
@@ -1277,22 +2414,24 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,24 +2445,26 @@
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,24 +2478,26 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,24 +2511,26 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,24 +2544,26 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,24 +2577,26 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,50 +2610,54 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,27 +2668,29 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,27 +2701,29 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,30 +2731,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,30 +2764,32 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,30 +2797,32 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,32 +2830,32 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,30 +2863,32 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,32 +2896,34 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,32 +2931,34 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,30 +2966,32 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,30 +2999,32 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,30 +3032,32 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,30 +3065,32 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,964 +3098,1022 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMJ27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>39</v>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>14</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMJ41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>48</v>
-      </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="K50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F52" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
